--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-753890.2742202509</v>
+        <v>-758029.9806342087</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12601428.27563828</v>
+        <v>12598478.37868618</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,7 +674,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>82.92222206188035</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>189.7172273238501</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>50.64353720722058</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>170.2188852065511</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>132.3214640560835</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>259.822010854806</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>116.641922609799</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>11.32413935249694</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>62.46955506727514</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226001</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>100.7570299602668</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>129.4406736556695</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>117.8800193443617</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>68.54822292241961</v>
+        <v>40.71608611725001</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>66.9283626152353</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>63.22807542778979</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>144.1339901255817</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>1.744628706341757</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>308.3596605411134</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>106.4741046921187</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>37.0449935881982</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>14.31421597177417</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697379</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.59377642287626</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815726</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093884</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227886</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619106</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126117</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564639</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838907</v>
+        <v>24.17382596574951</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828919</v>
+        <v>52.06849973564964</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434672</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308065</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086851</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435634</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158946</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431751</v>
+        <v>70.57601873167796</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459992</v>
+        <v>55.72314698196037</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643965</v>
+        <v>41.2968621938001</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931876</v>
+        <v>41.22330424667921</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908603</v>
+        <v>42.97275566644647</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147816</v>
+        <v>53.79159358883861</v>
       </c>
       <c r="H34" t="n">
-        <v>47.5873082280502</v>
+        <v>41.14384575541065</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922213</v>
+        <v>18.98356133658258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367805</v>
+        <v>9.8820597010385</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920537</v>
+        <v>88.00800320656582</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407379</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546737</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221364</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.5528533767741</v>
+        <v>1991.402517552392</v>
       </c>
       <c r="C2" t="n">
-        <v>873.5528533767741</v>
+        <v>1598.227016055322</v>
       </c>
       <c r="D2" t="n">
-        <v>873.5528533767741</v>
+        <v>1598.227016055322</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>1195.643491171867</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>778.7490527018446</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>365.5862971898477</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M2" t="n">
-        <v>895.7983071407457</v>
+        <v>1376.714099066282</v>
       </c>
       <c r="N2" t="n">
-        <v>1423.609590778208</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="O2" t="n">
-        <v>1863.649191670536</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737751</v>
+        <v>1991.402517552392</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.67616044127</v>
+        <v>1991.402517552392</v>
       </c>
       <c r="W2" t="n">
-        <v>1461.677125409557</v>
+        <v>1991.402517552392</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.043562456173</v>
+        <v>1991.402517552392</v>
       </c>
       <c r="Y2" t="n">
-        <v>873.5528533767741</v>
+        <v>1991.402517552392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>706.4151516456737</v>
+        <v>840.8692298963692</v>
       </c>
       <c r="C3" t="n">
-        <v>555.760921205766</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D3" t="n">
-        <v>425.6719538272462</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136677</v>
+        <v>1038.672011264339</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.26268714677</v>
+        <v>1552.274689874026</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737751</v>
+        <v>2065.877368483712</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1456.950026527829</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1226.832780661116</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.525703011128</v>
+        <v>1171.979781261823</v>
       </c>
       <c r="Y3" t="n">
-        <v>858.2114860866351</v>
+        <v>992.6655643373306</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.7868169933348</v>
+        <v>211.7083646903491</v>
       </c>
       <c r="C4" t="n">
-        <v>332.7868169933348</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="D4" t="n">
-        <v>177.1537038958495</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T4" t="n">
-        <v>618.2256087514338</v>
+        <v>740.13418548044</v>
       </c>
       <c r="U4" t="n">
-        <v>332.7868169933348</v>
+        <v>477.6877098695249</v>
       </c>
       <c r="V4" t="n">
-        <v>332.7868169933348</v>
+        <v>211.7083646903491</v>
       </c>
       <c r="W4" t="n">
-        <v>332.7868169933348</v>
+        <v>211.7083646903491</v>
       </c>
       <c r="X4" t="n">
-        <v>332.7868169933348</v>
+        <v>211.7083646903491</v>
       </c>
       <c r="Y4" t="n">
-        <v>332.7868169933348</v>
+        <v>211.7083646903491</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.271475716895</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="C5" t="n">
-        <v>872.0959742198256</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="D5" t="n">
-        <v>872.0959742198256</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E5" t="n">
-        <v>469.5124493363701</v>
+        <v>871.5604407383574</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>454.6660022683352</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222169</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>940.7368004323102</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1468.548084069772</v>
+        <v>1542.129285544447</v>
       </c>
       <c r="O5" t="n">
-        <v>1908.587684962101</v>
+        <v>1542.129285544447</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678802</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="T5" t="n">
-        <v>1996.83089008032</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="U5" t="n">
-        <v>1996.83089008032</v>
+        <v>1781.416694537038</v>
       </c>
       <c r="V5" t="n">
-        <v>1654.724080783838</v>
+        <v>1781.416694537038</v>
       </c>
       <c r="W5" t="n">
-        <v>1654.724080783838</v>
+        <v>1781.416694537038</v>
       </c>
       <c r="X5" t="n">
-        <v>1265.271475716895</v>
+        <v>1391.964089470095</v>
       </c>
       <c r="Y5" t="n">
-        <v>1265.271475716895</v>
+        <v>1391.964089470095</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021461</v>
+        <v>556.1927859813125</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622383</v>
+        <v>405.5385555414047</v>
       </c>
       <c r="D6" t="n">
-        <v>442.058626788223</v>
+        <v>275.449588162885</v>
       </c>
       <c r="E6" t="n">
-        <v>305.6121358991107</v>
+        <v>139.0030972737727</v>
       </c>
       <c r="F6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M6" t="n">
-        <v>996.5377244563697</v>
+        <v>642.335611881146</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.796509466463</v>
+        <v>1155.938290490833</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1669.54096910052</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714982</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614851</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813759</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492401</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863468</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996755</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692676001</v>
+        <v>887.3033373467665</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431074</v>
+        <v>707.9891204222738</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922403</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922403</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>709.2236301045415</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>709.2236301045415</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V7" t="n">
-        <v>607.4488523668982</v>
+        <v>155.81308052885</v>
       </c>
       <c r="W7" t="n">
-        <v>607.4488523668982</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="X7" t="n">
-        <v>607.4488523668982</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.3367911835415</v>
+        <v>41.50324675633835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>858.7708888264909</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="C8" t="n">
-        <v>858.7708888264909</v>
+        <v>1934.480089865633</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431587</v>
+        <v>1549.0389610823</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>1146.455436198845</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>729.5609977288226</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>316.3982422168257</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>371.4442765563904</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2246.577778466714</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2246.577778466714</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1990.825048901313</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1648.718239604831</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1648.718239604831</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1259.265634537888</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1259.265634537888</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0769001763519</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8717822423411</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>879.5193634285308</v>
+        <v>907.6326329287022</v>
       </c>
       <c r="S10" t="n">
-        <v>879.5193634285308</v>
+        <v>704.8165491112516</v>
       </c>
       <c r="T10" t="n">
-        <v>879.5193634285308</v>
+        <v>469.0974972794857</v>
       </c>
       <c r="U10" t="n">
-        <v>879.5193634285308</v>
+        <v>469.0974972794857</v>
       </c>
       <c r="V10" t="n">
-        <v>879.5193634285308</v>
+        <v>469.0974972794857</v>
       </c>
       <c r="W10" t="n">
-        <v>596.1889613597085</v>
+        <v>469.0974972794857</v>
       </c>
       <c r="X10" t="n">
-        <v>596.1889613597085</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.0769001763519</v>
+        <v>235.0171750624687</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C11" t="n">
-        <v>1067.411388442404</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442404</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527723</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3042.089642349423</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2890.385315055034</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2890.385315055034</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2620.074780904746</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1490.311599914302</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.2674000845003</v>
+        <v>387.3941705188079</v>
       </c>
       <c r="C13" t="n">
-        <v>409.8585572966833</v>
+        <v>387.3941705188079</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0217193453919</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E13" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1220.122944127511</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628191</v>
+        <v>1025.939874094529</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401906</v>
+        <v>814.405747171901</v>
       </c>
       <c r="X13" t="n">
-        <v>659.5831861216631</v>
+        <v>652.121700101078</v>
       </c>
       <c r="Y13" t="n">
-        <v>508.2674000845003</v>
+        <v>500.8059140639153</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.485543579474</v>
+        <v>1381.437402331605</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.106317228599</v>
+        <v>1060.05817598073</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.46146359146</v>
+        <v>1060.05817598073</v>
       </c>
       <c r="E14" t="n">
-        <v>922.6742138541988</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F14" t="n">
-        <v>577.5760505303704</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>236.2095701645674</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.534777998631</v>
+        <v>2352.486636750762</v>
       </c>
       <c r="X14" t="n">
-        <v>2541.878448077882</v>
+        <v>2034.830306830013</v>
       </c>
       <c r="Y14" t="n">
-        <v>2217.184014144677</v>
+        <v>1710.135872896808</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.830509782177</v>
+        <v>234.3338606870975</v>
       </c>
       <c r="C16" t="n">
-        <v>231.4113243395524</v>
+        <v>234.3338606870975</v>
       </c>
       <c r="D16" t="n">
-        <v>231.4113243395524</v>
+        <v>234.3338606870975</v>
       </c>
       <c r="E16" t="n">
-        <v>147.6487873449487</v>
+        <v>234.3338606870975</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457733</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127913</v>
+        <v>872.8795642628191</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901628</v>
+        <v>661.3454373401906</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193398</v>
+        <v>499.0613902693676</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.830509782177</v>
+        <v>347.7456042322049</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099323</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803437</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924327</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072221</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G20" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>593.6560140511124</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6008,19 +6008,19 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1521.202330875214</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072212</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1832.390418388517</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>393.1040050097767</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1840.480565683104</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2246.101934399501</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918587</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303043</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993066</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108098</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835463</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.555135602345</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640418</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>621.3530052915037</v>
+        <v>651.4842651334726</v>
       </c>
       <c r="L32" t="n">
-        <v>1114.673297010032</v>
+        <v>1256.456677426985</v>
       </c>
       <c r="M32" t="n">
-        <v>1660.674197054613</v>
+        <v>1802.457577471565</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419145</v>
+        <v>2330.268861109028</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038544</v>
+        <v>2770.308462001356</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170065</v>
+        <v>3118.495954132878</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3303.341514273827</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.75678011725</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939826</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380768</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696893</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281936</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.47960313175</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348362</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.299623917968</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.555135602345</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.555135602345</v>
       </c>
       <c r="K33" t="n">
-        <v>182.6625304604891</v>
+        <v>387.2942816645714</v>
       </c>
       <c r="L33" t="n">
-        <v>666.2286163588024</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>666.2286163588024</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1322.006587569361</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1838.526870160342</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2244.148238876739</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965141</v>
+        <v>365.6713676929692</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918677</v>
+        <v>309.385360640484</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237468</v>
+        <v>267.6713584245243</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652524</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546511</v>
+        <v>182.6248332597509</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.289890240722</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431939</v>
+        <v>86.73045008374154</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.555135602345</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.555135602345</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515734</v>
+        <v>389.5437325908905</v>
       </c>
       <c r="M34" t="n">
-        <v>701.101574345889</v>
+        <v>575.8353109291545</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770982</v>
+        <v>870.6770655353469</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1145.033953152038</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1376.5622395036</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873651</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387753</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451828</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501588</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250143</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395536</v>
+        <v>835.7257283273641</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000956</v>
+        <v>666.3144371400673</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124432</v>
+        <v>546.153225804576</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584509</v>
+        <v>436.9602755027449</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924226</v>
@@ -6962,25 +6962,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7099,19 +7099,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960412</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343052</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655144</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072225</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838011</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.202162476281</v>
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.571845448837</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1286.571845448837</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1803.092128039818</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.619390679759</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099307</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7491,19 +7491,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>346.0196676966397</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>346.0196676966397</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229981</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446702</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960409</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M46" t="n">
-        <v>499.953029634305</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>637.5111168138413</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920135</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>277.8653037321033</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>254.0922014045187</v>
+        <v>611.1777065035412</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886044</v>
+        <v>604.162697308396</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431183</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>96.46212172154195</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>657.8797217754509</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>232.4728862658764</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>129.3788906163298</v>
+        <v>96.58035134907654</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886044</v>
+        <v>604.162697308396</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431183</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,16 +8453,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>470.4637632346382</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>644.8631884980639</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,16 +8775,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>723.5863546247126</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,22 +9006,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9246,13 +9246,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>538.5873532373481</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9480,22 +9480,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O24" t="n">
-        <v>314.1682372053023</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>280.5807329993937</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>345.597757882153</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,25 +10191,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>238.0573041899393</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.1748646101141</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10665,13 +10665,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10911,13 +10911,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>546.0917343741362</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>433.5454285415798</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11139,22 +11139,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>376.3651575480042</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>624.8237719316268</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>251.2370714721315</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>30.54203168583821</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>67.37210132020441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>158.9165778937731</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>19.11971669877557</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>143.2898028423237</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60.37976077174056</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>70.36014707265066</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1100275.14076611</v>
+        <v>1098771.271731709</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1100275.14076611</v>
+        <v>1098771.271731709</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>988803.8008223065</v>
+        <v>988803.8008223067</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988803.8008223067</v>
+        <v>988803.8008223069</v>
       </c>
     </row>
     <row r="7">
@@ -26317,10 +26317,10 @@
         <v>216398.6137120282</v>
       </c>
       <c r="D2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="E2" t="n">
-        <v>191230.8281092806</v>
+        <v>191230.8281092805</v>
       </c>
       <c r="F2" t="n">
         <v>191230.8281092805</v>
@@ -26329,16 +26329,16 @@
         <v>216398.6137120281</v>
       </c>
       <c r="H2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="I2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="J2" t="n">
         <v>216398.6137120281</v>
       </c>
       <c r="K2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="L2" t="n">
         <v>216398.613712028</v>
@@ -26347,7 +26347,7 @@
         <v>216398.6137120282</v>
       </c>
       <c r="N2" t="n">
-        <v>216398.6137120281</v>
+        <v>216398.6137120282</v>
       </c>
       <c r="O2" t="n">
         <v>216398.6137120282</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401386</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.864039929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539707</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962294</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907738</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907738</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26433,7 +26433,7 @@
         <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
         <v>186364.8769761036</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
         <v>186364.8769761035</v>
       </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315418</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254045.2467687927</v>
+        <v>-249393.0271476175</v>
       </c>
       <c r="C6" t="n">
-        <v>-71840.29847693664</v>
+        <v>-75534.37011356271</v>
       </c>
       <c r="D6" t="n">
-        <v>-79584.87918055704</v>
+        <v>-87321.16840394921</v>
       </c>
       <c r="E6" t="n">
-        <v>-112683.7135491258</v>
+        <v>-112893.4450958155</v>
       </c>
       <c r="F6" t="n">
-        <v>-561.1520750813361</v>
+        <v>-770.8836217709272</v>
       </c>
       <c r="G6" t="n">
-        <v>-75561.35811627709</v>
+        <v>-75561.3581162772</v>
       </c>
       <c r="H6" t="n">
-        <v>-28136.032579595</v>
+        <v>-28136.0325795952</v>
       </c>
       <c r="I6" t="n">
-        <v>-28136.03257959508</v>
+        <v>-28136.03257959514</v>
       </c>
       <c r="J6" t="n">
-        <v>-241177.9501768808</v>
+        <v>-234661.665022307</v>
       </c>
       <c r="K6" t="n">
-        <v>-34375.80098237799</v>
+        <v>-34375.80098237812</v>
       </c>
       <c r="L6" t="n">
-        <v>-89558.38991699921</v>
+        <v>-93607.22712747185</v>
       </c>
       <c r="M6" t="n">
-        <v>-70336.86203921796</v>
+        <v>-71388.55705040621</v>
       </c>
       <c r="N6" t="n">
-        <v>-28136.03257959516</v>
+        <v>-28136.03257959499</v>
       </c>
       <c r="O6" t="n">
-        <v>-55903.72662236614</v>
+        <v>-55903.72662236617</v>
       </c>
       <c r="P6" t="n">
-        <v>-28136.03257959499</v>
+        <v>-28136.03257959505</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.344353009521</v>
+        <v>844.4391950293125</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924634</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155136</v>
+        <v>17.58004954287405</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506571</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971633</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407208</v>
+        <v>117.1268713042806</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506571</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,13 +27379,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27433,19 +27433,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>170.272980207867</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>195.8408516924236</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>82.93783312190926</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>50.09571640609255</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>21.68175996330598</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.7623929857121</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>279.8478756444839</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>209.9414570636805</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66.31852263745932</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343951</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>162.5625217671172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>191.4015462735048</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.9684001639982</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28011,16 +28011,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>54.11375655132919</v>
+        <v>81.9458933564988</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,43 +28752,43 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634528836</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634527685</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
-        <v>35.7104901066881</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668682</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29226,16 +29226,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>5.636002634527927</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833543</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.10808140892692</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>76.79385455030692</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844045621</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529262</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30414,16 +30414,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30736,7 +30736,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30876,19 +30876,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668865</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>487.7860652161141</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>127.5638564911781</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>161.7050793552068</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.3787569022273</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>508.7612304376668</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>82.17143902495123</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>36.99176856701784</v>
+        <v>4.193229299764628</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>327.4053600554008</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>495.7446971602798</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,16 +35495,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>631.1992325754007</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,22 +35726,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>453.2152403831814</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,19 +36048,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873208</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724859</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36200,22 +36200,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.63600263452903</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.1672541168393</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O24" t="n">
-        <v>221.4806783164134</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36522,16 +36522,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>193.8093140873199</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>528.575562627224</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101028</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>188.1936109500817</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>619.7932383009069</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.0691510340253</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144244</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407065</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409213</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.820902645857</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537702</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>145.1867114542002</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>242.5793493723269</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932482</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476691</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.8669559106685</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565492</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,13 +37476,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716083</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>460.7196215199696</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>346.4620637222652</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37710,16 +37710,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>286.7682222146709</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>539.4516590774601</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529575</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L46" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
